--- a/src/main/resources/billsDomestic.xlsx
+++ b/src/main/resources/billsDomestic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="90" windowWidth="14955" windowHeight="7770"/>
+    <workbookView xWindow="22785" yWindow="90" windowWidth="14955" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="对账清单" sheetId="1" r:id="rId1"/>
@@ -805,20 +805,20 @@
   <dimension ref="B1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="0.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="4" customWidth="1"/>
     <col min="10" max="10" width="7.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
